--- a/tmp_client/doc/TMP_EIT_suites/radiant/flow_00_design_entry.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/flow_00_design_entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59338472-1D9B-44E6-A67B-E5843F9224BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B623D37-DD30-4B7D-B1D9-6BAD44ECFE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="1845" windowWidth="18765" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="483">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -1061,51 +1061,267 @@
     <t>radiant=ng2_3</t>
   </si>
   <si>
+    <t>Pure</t>
+  </si>
+  <si>
+    <t>cmd= --run-par</t>
+  </si>
+  <si>
+    <t>entry</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>cmd= --run-par --synthesis=synplify</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>cmd= --run-par --synthesis=lse</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>encryptedRTL</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>IP_PMI</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>flow_00_design_entry_v2.01</t>
+  </si>
+  <si>
+    <t>01_Pure/01_VHDL/vhdl_vhdlconf_rvl</t>
+  </si>
+  <si>
     <t>01_Pure/04_blackbox/vhdl_blackvhdl</t>
   </si>
   <si>
-    <t>Pure</t>
-  </si>
-  <si>
-    <t>cmd= --run-par</t>
-  </si>
-  <si>
-    <t>entry</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>01_Pure/04_blackbox/v_blackv</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>01_Pure/03_system_verilog/sv</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>01_Pure/02_verilog/v1</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>01_Pure/01_VHDL/vhdl_customized_work_lib_syn</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>01_Pure/01_VHDL/vhdl_customized_work_lib_lse</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>01_Pure/01_VHDL/vhd1</t>
   </si>
   <si>
@@ -1115,406 +1331,190 @@
     <t>02_Mixed/sv_fdc</t>
   </si>
   <si>
-    <t>Mixed</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>02_Mixed/sv_ipx_vm_v_vhdl_fdc_ldc_pdc_mixed</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>02_Mixed/sv_ipx_vm_v_vhdl_mixed</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>02_Mixed/sv_ipx_vm_v_vhdl_sdc_ldc_pdc_mixed</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>02_Mixed/sv_ldc</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>02_Mixed/sv_sdc</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>02_Mixed/v_blackv_vm_sdc</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>02_Mixed/v_ldc</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>02_Mixed/v_pdc</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>02_Mixed/v_rvl_rva</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>02_Mixed/v_vhdl_mixed1</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>02_Mixed/vdhl_blackvhdl_vm_sdc</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>02_Mixed/vhd_v_mixed</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>02_Mixed/vhdl_ldcvm_sdc</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>02_Mixed/vhdl_vhdl_v_rvl</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>03_VM/VM_rvl/ldcvm_rvl_syn</t>
   </si>
   <si>
-    <t>VM</t>
-  </si>
-  <si>
-    <t>cmd= --run-par --synthesis=synplify</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>03_VM/VM_rvl/ldcvm_rvl_lse</t>
   </si>
   <si>
-    <t>cmd= --run-par --synthesis=lse</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>03_VM/TopVM/vhdlvm_pdc</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>03_VM/TopVM/verilogvm_syn</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>03_VM/TopVM/verilogvm_lse</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>03_VM/TopVM/verilogldcvm_syn</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>03_VM/TopVM/verilogldcvm_lse</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>03_VM/SubVM/vhdl_vmvhdl_syn</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>03_VM/SubVM/vhdl_vmvhdl_lse</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>03_VM/SubVM/vhdl_ldcmv_pdc</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>03_VM/SubVM/vhdl_ldcmv</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>03_VM/SubVM/v_vmvhdl_syn</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>03_VM/SubVM/v_vmsyn_lse</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>03_VM/MutilVM/Multi_subvm_lse</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>04_eRTL/eip</t>
   </si>
   <si>
-    <t>encryptedRTL</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>04_eRTL/eip_rvl_pdc</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>04_eRTL/ev_2_lse</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>04_eRTL/ev_2_syn</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>04_eRTL/ev_rvl_lse</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>04_eRTL/ev_rvl_syn</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>04_eRTL/ev_sdc_ldc_pdc</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>04_eRTL/ev_v_lse</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>04_eRTL/ev_v_syn</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>04_eRTL/evhdl_vhdl_ldc</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>04_eRTL/v_ev_lse</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>04_eRTL/v_ev_syn</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>04_eRTL/vhdl_ev_vhdl_v_sdc</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>04_eRTL/vhdl_ev_vhdl_v_sdc_rvl</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>05_IP_PMI/IP/ipx_pdc</t>
   </si>
   <si>
-    <t>IP_PMI</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>05_IP_PMI/IP/ipx1</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>05_IP_PMI/IP/ipx2</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>05_IP_PMI/IP/v_ipx</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>05_IP_PMI/IP/v_ipx_vhdl_v_ldc_pdc</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>05_IP_PMI/IP/v_multiipx</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>05_IP_PMI/IP/v_v_ipx</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>05_IP_PMI/IP/v_v_vhd_ipx</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>05_IP_PMI/IP/v_vm_ipx_encrpt</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>05_IP_PMI/IP/vhd_ipx</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>05_IP_PMI/PMI/v_pmi</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>05_IP_PMI/PMI/v_pmi_pdc</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>05_IP_PMI/PMI/vhd_pmi</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>05_IP_PMI/PMI/vhdl_pmi_pdc1</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>06_Macro/v_fipm</t>
   </si>
   <si>
-    <t>Macro</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>06_Macro/v_hipm</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>06_Macro/v_hipm_fdc_ldc_pdc</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
     <t>06_Macro/v_hipm_fdc_ldc_pdc_rvl</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>06_Macro/v_hipm_sdc_ldc_pdc</t>
   </si>
   <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>06_Macro/v_hipm_sdc_ldc_pdc_rvl</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
     <t>06_Macro/v_lipm</t>
-  </si>
-  <si>
-    <t>flow_00_design_entry_v2.01</t>
   </si>
 </sst>
 </file>
@@ -5496,7 +5496,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5527,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>482</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5609,10 +5609,10 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5683,7 +5683,7 @@
       <c r="AE1" s="82"/>
       <c r="AF1" s="82"/>
     </row>
-    <row r="2" spans="1:32" s="46" customFormat="1">
+    <row r="2" spans="1:32" s="46" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="49" t="s">
         <v>12</v>
       </c>
@@ -5781,165 +5781,165 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" ht="15.75" thickTop="1">
       <c r="A3" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="E3" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="F3" s="47">
-        <v>1</v>
-      </c>
-      <c r="O3" s="47" t="s">
+      <c r="T3" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T3" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>336</v>
+        <v>413</v>
       </c>
       <c r="D4" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="F4" s="47">
-        <v>1</v>
-      </c>
-      <c r="O4" s="47" t="s">
+      <c r="T4" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="47" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="D5" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="F5" s="47">
-        <v>1</v>
-      </c>
-      <c r="O5" s="47" t="s">
+      <c r="T5" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T5" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="47" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="D6" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="F6" s="47">
-        <v>1</v>
-      </c>
-      <c r="O6" s="47" t="s">
+      <c r="T6" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T6" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="47" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
       <c r="D7" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>342</v>
-      </c>
-      <c r="F7" s="47">
-        <v>1</v>
-      </c>
-      <c r="O7" s="47" t="s">
+      <c r="T7" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T7" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="47" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>344</v>
+        <v>417</v>
       </c>
       <c r="D8" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>344</v>
-      </c>
-      <c r="F8" s="47">
-        <v>1</v>
-      </c>
-      <c r="O8" s="47" t="s">
+      <c r="T8" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T8" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="47" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>346</v>
+        <v>418</v>
       </c>
       <c r="D9" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="E9" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="F9" s="47">
-        <v>1</v>
-      </c>
-      <c r="O9" s="47" t="s">
+      <c r="T9" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T9" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -5947,22 +5947,22 @@
         <v>229</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>347</v>
+        <v>419</v>
       </c>
       <c r="D10" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="F10" s="47">
-        <v>1</v>
-      </c>
-      <c r="O10" s="47" t="s">
+      <c r="T10" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T10" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -5970,1475 +5970,1472 @@
         <v>326</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" s="47">
-        <v>1</v>
-      </c>
-      <c r="O11" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="P11" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T11" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T11" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="47" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" s="47">
-        <v>1</v>
-      </c>
-      <c r="O12" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T12" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T12" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="47" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>353</v>
-      </c>
-      <c r="F13" s="47">
-        <v>1</v>
-      </c>
-      <c r="O13" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T13" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T13" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="47" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="F14" s="47">
-        <v>1</v>
-      </c>
-      <c r="O14" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T14" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T14" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="47" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>357</v>
-      </c>
-      <c r="F15" s="47">
-        <v>1</v>
-      </c>
-      <c r="O15" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T15" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T15" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="47" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="F16" s="47">
-        <v>1</v>
-      </c>
-      <c r="O16" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T16" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T16" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="47" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>361</v>
-      </c>
-      <c r="F17" s="47">
-        <v>1</v>
-      </c>
-      <c r="O17" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T17" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T17" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="47" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="F18" s="47">
-        <v>1</v>
-      </c>
-      <c r="O18" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T18" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T18" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="47" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="F19" s="47">
-        <v>1</v>
-      </c>
-      <c r="O19" s="47" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T19" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T19" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="47" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>367</v>
+        <v>428</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="F20" s="47">
-        <v>1</v>
-      </c>
-      <c r="O20" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T20" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T20" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="47" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>369</v>
+        <v>429</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>369</v>
-      </c>
-      <c r="F21" s="47">
-        <v>1</v>
-      </c>
-      <c r="O21" s="47" t="s">
+        <v>429</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T21" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T21" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="47" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="F22" s="47">
-        <v>1</v>
-      </c>
-      <c r="O22" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P22" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T22" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T22" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="47" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="F23" s="47">
-        <v>1</v>
-      </c>
-      <c r="O23" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T23" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T23" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="47" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="F24" s="47">
-        <v>1</v>
-      </c>
-      <c r="O24" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T24" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T24" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="47" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="F25" s="47">
-        <v>1</v>
-      </c>
-      <c r="O25" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T25" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T25" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="47" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="F26" s="47">
-        <v>1</v>
-      </c>
-      <c r="O26" s="47" t="s">
-        <v>381</v>
+        <v>434</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>357</v>
       </c>
       <c r="T26" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="47" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="F27" s="47">
-        <v>1</v>
-      </c>
-      <c r="O27" s="47" t="s">
-        <v>384</v>
+        <v>435</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="47" t="s">
+        <v>359</v>
       </c>
       <c r="T27" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="47" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>386</v>
-      </c>
-      <c r="F28" s="47">
-        <v>1</v>
-      </c>
-      <c r="O28" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T28" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T28" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="47" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E29" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="F29" s="47">
-        <v>1</v>
-      </c>
-      <c r="O29" s="47" t="s">
-        <v>381</v>
+        <v>437</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="47" t="s">
+        <v>357</v>
       </c>
       <c r="T29" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="47" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="F30" s="47">
-        <v>1</v>
-      </c>
-      <c r="O30" s="47" t="s">
-        <v>384</v>
+        <v>438</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" s="47" t="s">
+        <v>359</v>
       </c>
       <c r="T30" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="47" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="F31" s="47">
-        <v>1</v>
-      </c>
-      <c r="O31" s="47" t="s">
-        <v>381</v>
+        <v>439</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P31" s="47" t="s">
+        <v>357</v>
       </c>
       <c r="T31" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="47" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>394</v>
-      </c>
-      <c r="F32" s="47">
-        <v>1</v>
-      </c>
-      <c r="O32" s="47" t="s">
-        <v>384</v>
+        <v>440</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="47" t="s">
+        <v>359</v>
       </c>
       <c r="T32" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="47" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>396</v>
-      </c>
-      <c r="F33" s="47">
-        <v>1</v>
-      </c>
-      <c r="O33" s="47" t="s">
-        <v>381</v>
+        <v>441</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" s="47" t="s">
+        <v>357</v>
       </c>
       <c r="T33" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="47" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>398</v>
-      </c>
-      <c r="F34" s="47">
-        <v>1</v>
-      </c>
-      <c r="O34" s="47" t="s">
-        <v>384</v>
+        <v>442</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P34" s="47" t="s">
+        <v>359</v>
       </c>
       <c r="T34" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="47" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>400</v>
-      </c>
-      <c r="F35" s="47">
-        <v>1</v>
-      </c>
-      <c r="O35" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T35" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T35" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="47" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>402</v>
-      </c>
-      <c r="F36" s="47">
-        <v>1</v>
-      </c>
-      <c r="O36" s="47" t="s">
+        <v>444</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T36" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T36" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="47" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>404</v>
-      </c>
-      <c r="F37" s="47">
-        <v>1</v>
-      </c>
-      <c r="O37" s="47" t="s">
-        <v>381</v>
+        <v>445</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P37" s="47" t="s">
+        <v>357</v>
       </c>
       <c r="T37" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="47" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="F38" s="47">
-        <v>1</v>
-      </c>
-      <c r="O38" s="47" t="s">
-        <v>384</v>
+        <v>446</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" s="47" t="s">
+        <v>359</v>
       </c>
       <c r="T38" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="47" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="F39" s="47">
-        <v>1</v>
-      </c>
-      <c r="O39" s="47" t="s">
-        <v>384</v>
+        <v>447</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" s="47" t="s">
+        <v>359</v>
       </c>
       <c r="T39" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="47" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>410</v>
-      </c>
-      <c r="F40" s="47">
-        <v>1</v>
-      </c>
-      <c r="O40" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P40" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T40" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T40" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="47" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>413</v>
+        <v>449</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="F41" s="47">
-        <v>1</v>
-      </c>
-      <c r="O41" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P41" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T41" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T41" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="47" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="F42" s="47">
-        <v>1</v>
-      </c>
-      <c r="O42" s="47" t="s">
-        <v>384</v>
+        <v>450</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" s="47" t="s">
+        <v>359</v>
       </c>
       <c r="T42" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="47" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="F43" s="47">
-        <v>1</v>
-      </c>
-      <c r="O43" s="47" t="s">
-        <v>381</v>
+        <v>451</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P43" s="47" t="s">
+        <v>357</v>
       </c>
       <c r="T43" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="47" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="F44" s="47">
-        <v>1</v>
-      </c>
-      <c r="O44" s="47" t="s">
-        <v>384</v>
+        <v>452</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P44" s="47" t="s">
+        <v>359</v>
       </c>
       <c r="T44" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="47" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="F45" s="47">
-        <v>1</v>
-      </c>
-      <c r="O45" s="47" t="s">
-        <v>381</v>
+        <v>453</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P45" s="47" t="s">
+        <v>357</v>
       </c>
       <c r="T45" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="47" t="s">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>423</v>
-      </c>
-      <c r="F46" s="47">
-        <v>1</v>
-      </c>
-      <c r="O46" s="47" t="s">
+        <v>454</v>
+      </c>
+      <c r="F46" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P46" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T46" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T46" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="47" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="F47" s="47">
-        <v>1</v>
-      </c>
-      <c r="O47" s="47" t="s">
-        <v>384</v>
+        <v>455</v>
+      </c>
+      <c r="F47" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P47" s="47" t="s">
+        <v>359</v>
       </c>
       <c r="T47" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="47" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>427</v>
-      </c>
-      <c r="F48" s="47">
-        <v>1</v>
-      </c>
-      <c r="O48" s="47" t="s">
-        <v>381</v>
+        <v>456</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P48" s="47" t="s">
+        <v>357</v>
       </c>
       <c r="T48" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="47" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>429</v>
-      </c>
-      <c r="F49" s="47">
-        <v>1</v>
-      </c>
-      <c r="O49" s="47" t="s">
+        <v>457</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P49" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T49" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T49" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="47" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>431</v>
-      </c>
-      <c r="F50" s="47">
-        <v>1</v>
-      </c>
-      <c r="O50" s="47" t="s">
-        <v>384</v>
+        <v>458</v>
+      </c>
+      <c r="F50" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P50" s="47" t="s">
+        <v>359</v>
       </c>
       <c r="T50" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="47" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>433</v>
-      </c>
-      <c r="F51" s="47">
-        <v>1</v>
-      </c>
-      <c r="O51" s="47" t="s">
-        <v>381</v>
+        <v>459</v>
+      </c>
+      <c r="F51" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P51" s="47" t="s">
+        <v>357</v>
       </c>
       <c r="T51" s="47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="47" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>435</v>
-      </c>
-      <c r="F52" s="47">
-        <v>1</v>
-      </c>
-      <c r="O52" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="F52" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P52" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T52" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T52" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="47" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="F53" s="47">
-        <v>1</v>
-      </c>
-      <c r="O53" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P53" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T53" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T53" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="47" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E54" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="F54" s="47">
-        <v>1</v>
-      </c>
-      <c r="O54" s="47" t="s">
+        <v>462</v>
+      </c>
+      <c r="F54" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P54" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T54" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T54" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="47" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="D55" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E55" s="47" t="s">
-        <v>442</v>
-      </c>
-      <c r="F55" s="47">
-        <v>1</v>
-      </c>
-      <c r="O55" s="47" t="s">
+        <v>463</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P55" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T55" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T55" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="47" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E56" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="F56" s="47">
-        <v>1</v>
-      </c>
-      <c r="O56" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P56" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T56" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T56" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="47" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E57" s="47" t="s">
-        <v>446</v>
-      </c>
-      <c r="F57" s="47">
-        <v>1</v>
-      </c>
-      <c r="O57" s="47" t="s">
+        <v>465</v>
+      </c>
+      <c r="F57" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P57" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T57" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T57" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="47" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="F58" s="47">
-        <v>1</v>
-      </c>
-      <c r="O58" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="F58" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P58" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T58" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T58" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="47" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E59" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="F59" s="47">
-        <v>1</v>
-      </c>
-      <c r="O59" s="47" t="s">
+        <v>467</v>
+      </c>
+      <c r="F59" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P59" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T59" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T59" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="47" t="s">
-        <v>451</v>
+        <v>394</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>452</v>
-      </c>
-      <c r="F60" s="47">
-        <v>1</v>
-      </c>
-      <c r="O60" s="47" t="s">
+        <v>468</v>
+      </c>
+      <c r="F60" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P60" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T60" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T60" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="47" t="s">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E61" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="F61" s="47">
-        <v>1</v>
-      </c>
-      <c r="O61" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="F61" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P61" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T61" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T61" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="47" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E62" s="47" t="s">
-        <v>456</v>
-      </c>
-      <c r="F62" s="47">
-        <v>1</v>
-      </c>
-      <c r="O62" s="47" t="s">
+        <v>470</v>
+      </c>
+      <c r="F62" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P62" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T62" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T62" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="47" t="s">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E63" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="F63" s="47">
-        <v>1</v>
-      </c>
-      <c r="O63" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="F63" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P63" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T63" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T63" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="47" t="s">
-        <v>459</v>
+        <v>398</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E64" s="47" t="s">
-        <v>460</v>
-      </c>
-      <c r="F64" s="47">
-        <v>1</v>
-      </c>
-      <c r="O64" s="47" t="s">
+        <v>472</v>
+      </c>
+      <c r="F64" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P64" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T64" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T64" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="47" t="s">
-        <v>461</v>
+        <v>399</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E65" s="47" t="s">
-        <v>462</v>
-      </c>
-      <c r="F65" s="47">
-        <v>1</v>
-      </c>
-      <c r="O65" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="F65" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P65" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T65" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T65" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="47" t="s">
-        <v>463</v>
+        <v>400</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E66" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="F66" s="47">
-        <v>1</v>
-      </c>
-      <c r="O66" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="F66" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P66" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T66" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T66" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="47" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="E67" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="F67" s="47">
-        <v>1</v>
-      </c>
-      <c r="O67" s="47" t="s">
+        <v>475</v>
+      </c>
+      <c r="F67" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P67" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T67" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T67" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="47" t="s">
-        <v>467</v>
+        <v>402</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="E68" s="47" t="s">
-        <v>468</v>
-      </c>
-      <c r="F68" s="47">
-        <v>1</v>
-      </c>
-      <c r="O68" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="F68" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P68" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T68" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T68" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="47" t="s">
-        <v>470</v>
+        <v>404</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="E69" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="F69" s="47">
-        <v>1</v>
-      </c>
-      <c r="O69" s="47" t="s">
+        <v>477</v>
+      </c>
+      <c r="F69" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P69" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T69" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T69" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="47" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="E70" s="47" t="s">
-        <v>473</v>
-      </c>
-      <c r="F70" s="47">
-        <v>1</v>
-      </c>
-      <c r="O70" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="F70" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P70" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T70" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T70" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="47" t="s">
-        <v>474</v>
+        <v>406</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D71" s="47" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="E71" s="47" t="s">
-        <v>475</v>
-      </c>
-      <c r="F71" s="47">
-        <v>1</v>
-      </c>
-      <c r="O71" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="F71" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P71" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T71" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T71" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="47" t="s">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D72" s="47" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="E72" s="47" t="s">
-        <v>477</v>
-      </c>
-      <c r="F72" s="47">
-        <v>1</v>
-      </c>
-      <c r="O72" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="F72" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P72" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T72" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T72" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="47" t="s">
-        <v>478</v>
+        <v>408</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D73" s="47" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="E73" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="F73" s="47">
-        <v>1</v>
-      </c>
-      <c r="O73" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="F73" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P73" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T73" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="T73" s="47" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="47" t="s">
-        <v>480</v>
+        <v>409</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D74" s="47" t="s">
-        <v>469</v>
+        <v>403</v>
       </c>
       <c r="E74" s="47" t="s">
-        <v>481</v>
-      </c>
-      <c r="F74" s="47">
-        <v>1</v>
-      </c>
-      <c r="O74" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="F74" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="P74" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="T74" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="T74" s="47" t="s">
-        <v>334</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Sju3pjEnjegba3BrZLImZ+xscQ9MLEq+i8mDO7rXFn4S3yXv8zWb4HaF0uC2YruSs8wkV8FCIxY7a0fvnwVXFw==" saltValue="mZmUchosJ60PlKqUXOSzGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jLaX1lfSSD0dWTd5XLF5Ly1sFk80u3j1EW+sAWfJJgMz2EU5zd++badeIS+s3KvOvjJ09h/PaVXIXXN6fPVSig==" saltValue="oEFt4Fh3Od8CGyPpxtpdtw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AF46" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
@@ -7446,21 +7443,21 @@
       <selection activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:Y2" xr:uid="{F0DAC0A3-918E-4012-91CF-B318AF1DB4E7}"/>
+      <autoFilter ref="A2:Y2" xr:uid="{D3A5D0B2-4648-4282-B2B4-E303C059594D}"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
       <selection activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:Y2" xr:uid="{2804CB02-B73E-4334-B43B-2165CD5E428E}"/>
+      <autoFilter ref="A2:Y2" xr:uid="{592B5FC6-37F6-4654-8BB5-BBF5B8F94B9F}"/>
     </customSheetView>
     <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:AF46" xr:uid="{D3D970FA-E7CB-4B8A-8364-AEFCFB4956E0}"/>
+      <autoFilter ref="A2:AF46" xr:uid="{5C408084-FE2B-476C-B7D7-9763B6DD88C9}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
